--- a/URS/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicB201.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKLmy\_prog\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BF5FC-C42F-4836-873C-44ABFA2F91E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4FA0E-3D21-402C-9F68-2ED630A8318A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="9" r:id="rId3"/>
-    <sheet name="暫存檔 Work_B201" sheetId="10" r:id="rId4"/>
+    <sheet name="暫存檔 Work_B201_Guarantor" sheetId="10" r:id="rId4"/>
     <sheet name="條件" sheetId="11" r:id="rId5"/>
     <sheet name="欄位更新" sheetId="12" r:id="rId6"/>
     <sheet name="B201-聯徵說明" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'B201-聯徵說明'!$A$8:$H$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DBD!$A$8:$G$105</definedName>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="740">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1595,9 +1592,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>WK."SeqNo"</t>
-  </si>
-  <si>
     <t>M."CustId"</t>
   </si>
   <si>
@@ -1608,9 +1602,6 @@
   </si>
   <si>
     <t>M."OverseasId"</t>
-  </si>
-  <si>
-    <t>M."IndustryCode"</t>
   </si>
   <si>
     <t>CASE
@@ -1854,66 +1845,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>WK."GuaTypeCode1"</t>
-  </si>
-  <si>
-    <t>WK."GuaId1"</t>
-  </si>
-  <si>
-    <t>WK."GuaIdErr1"</t>
-  </si>
-  <si>
-    <t>WK."GuaRelCode1"</t>
-  </si>
-  <si>
-    <t>WK."GuaTypeCode2"</t>
-  </si>
-  <si>
-    <t>WK."GuaId2"</t>
-  </si>
-  <si>
-    <t>WK."GuaIdErr2"</t>
-  </si>
-  <si>
-    <t>WK."GuaRelCode2"</t>
-  </si>
-  <si>
-    <t>WK."GuaTypeCode3"</t>
-  </si>
-  <si>
-    <t>WK."GuaId3"</t>
-  </si>
-  <si>
-    <t>WK."GuaIdErr3"</t>
-  </si>
-  <si>
-    <t>WK."GuaRelCode3"</t>
-  </si>
-  <si>
-    <t>WK."GuaTypeCode4"</t>
-  </si>
-  <si>
-    <t>WK."GuaId4"</t>
-  </si>
-  <si>
-    <t>WK."GuaIdErr4"</t>
-  </si>
-  <si>
-    <t>WK."GuaRelCode4"</t>
-  </si>
-  <si>
-    <t>WK."GuaTypeCode5"</t>
-  </si>
-  <si>
-    <t>WK."GuaId5"</t>
-  </si>
-  <si>
-    <t>WK."GuaIdErr5"</t>
-  </si>
-  <si>
-    <t>WK."GuaRelCode5"</t>
-  </si>
-  <si>
     <t>CASE
   WHEN M."CustNo" IN (0269376) AND M."FacmNo" IN (003) AND M."BormNo" IN (001) THEN 09912  -- 特例 (ref: LN15H1)
   WHEN TRUNC(NVL(M."BadDebtDate",0) / 100) &lt; 191100 THEN TRUNC(NVL(M."BadDebtDate",0) / 100)
@@ -1936,175 +1867,6 @@
     <t>YYYYMM - 191100</t>
   </si>
   <si>
-    <t>WK."DataEnd"</t>
-  </si>
-  <si>
-    <t>-- 寫入資料 Work_B201    -- JcicB201 的 key 值</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>-- 共同債務人或債務關係人 1~5 寫入第一筆 ("SeqNo"=1)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>-- 共同債務人或債務關係人 6~10 寫入第二筆 ("SeqNo"=2)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    INSERT INTO "Work_B201"
-    SELECT YYYYMM                                AS "DataYM"
-         , M."CustNo"                            AS "CustNo"
-         , M."FacmNo"                            AS "FacmNo"
-         , M."BormNo"                            AS "BormNo"
-         , 2                                     AS "SeqNo"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    SELECT YYYYMM                                AS "DataYM"
-         , M."CustNo"                            AS "CustNo"
-         , M."FacmNo"                            AS "FacmNo"
-         , M."BormNo"                            AS "BormNo"
-         , 1                                     AS "SeqNo"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         , NVL(M."GuaTypeCode1",' ')             AS "GuaTypeCode1"      -- 共同債務人或債務關係人身份代號1
-         , NVL(M."GuaId1",' ')                   AS "GuaId1"            -- 共同債務人或債務關係人身份統一編號1
-         , ' '                                   AS "GuaIdErr1"         -- 上欄IDN或BAN錯誤註記
-         , NVL(M."GuaRelCode1",' ')              AS "GuaRelCode1"       -- 與主債務人關係1
-         , NVL(M."GuaTypeCode2",' ')             AS "GuaTypeCode2"
-         , NVL(M."GuaId2",' ')                   AS "GuaId2"
-         , ' '                                   AS "GuaIdErr2"
-         , NVL(M."GuaRelCode2",' ')              AS "GuaRelCode2"
-         , NVL(M."GuaTypeCode3",' ')             AS "GuaTypeCode3"
-         , NVL(M."GuaId3",' ')                   AS "GuaId3"
-         , ' '                                   AS "GuaIdErr3"
-         , NVL(M."GuaRelCode3",' ')              AS "GuaRelCode3"
-         , NVL(M."GuaTypeCode4",' ')             AS "GuaTypeCode4"
-         , NVL(M."GuaId4",' ')                   AS "GuaId4"
-         , ' '                                   AS "GuaIdErr4"
-         , NVL(M."GuaRelCode4",' ')              AS "GuaRelCode4"
-         , NVL(M."GuaTypeCode5",' ')             AS "GuaTypeCode5"
-         , NVL(M."GuaId5",' ')                   AS "GuaId5"
-         , ' '                                   AS "GuaIdErr5"
-         , NVL(M."GuaRelCode5",' ')              AS "GuaRelCode5"
-         , CASE
-             WHEN TRIM(NVL(M."GuaId6",' ')) IS NOT NULL THEN 'N'
-             ELSE 'Y'
-           END                                   AS "DataEnd"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM   "JcicMonthlyLoanData" M
-    WHERE  M."DataYM"     =  YYYYMM
-      ;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         , NVL(M."GuaTypeCode6",' ')             AS "GuaTypeCode1"      -- 共同債務人或債務關係人身份代號1
-         , NVL(M."GuaId6",' ')                   AS "GuaId1"            -- 共同債務人或債務關係人身份統一編號1
-         , ' '                                   AS "GuaIdErr1"         -- 上欄IDN或BAN錯誤註記
-         , NVL(M."GuaRelCode6",' ')              AS "GuaRelCode1"       -- 與主債務人關係1
-         , NVL(M."GuaTypeCode7",' ')             AS "GuaTypeCode2"
-         , NVL(M."GuaId7",' ')                   AS "GuaId2"
-         , ' '                                   AS "GuaIdErr2"
-         , NVL(M."GuaRelCode7",' ')              AS "GuaRelCode2"
-         , NVL(M."GuaTypeCode8",' ')             AS "GuaTypeCode3"
-         , NVL(M."GuaId8",' ')                   AS "GuaId3"
-         , ' '                                   AS "GuaIdErr3"
-         , NVL(M."GuaRelCode8",' ')              AS "GuaRelCode3"
-         , NVL(M."GuaTypeCode9",' ')             AS "GuaTypeCode4"
-         , NVL(M."GuaId9",' ')                   AS "GuaId4"
-         , ' '                                   AS "GuaIdErr4"
-         , NVL(M."GuaRelCode9",' ')              AS "GuaRelCode4"
-         , NVL(M."GuaTypeCode10",' ')            AS "GuaTypeCode5"
-         , NVL(M."GuaId10",' ')                  AS "GuaId5"
-         , ' '                                   AS "GuaIdErr5"
-         , NVL(M."GuaRelCode10",' ')             AS "GuaRelCode5"
-         , 'Y'                                   AS "DataEnd"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM   "JcicMonthlyLoanData" M
-    WHERE  M."DataYM"     =  YYYYMM
-      AND  TRIM(NVL(M."GuaId6",' ')) IS NOT NULL
-      ;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    FROM   "Work_B201" WK</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        LEFT JOIN "JcicMonthlyLoanData" M  ON M."DataYM"   = WK."DataYM"
-                                          AND M."CustNo"   = WK."CustNo"
-                                          AND M."FacmNo"   = WK."FacmNo"
-                                          AND M."BormNo"   = WK."BormNo"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        LEFT JOIN "LoanBorMain" L     ON L."CustNo"   = M."CustNo"
-                                     AND L."FacmNo"   = M."FacmNo"
-                                     AND L."BormNo"   = M."BormNo"</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        LEFT JOIN ( SELECT  Tx."CustNo"
-                         ,  Tx."FacmNo"
-                         ,  Tx."BormNo"
-                         ,  Tx."TitaTxCd"
-                         ,  Tx."TitaHCode"
-                         ,  Tx."AcDate"
-                         ,  JSON_VALUE  (Tx."OtherFields", '$.CaseCloseCode') AS "CaseCloseCode"
-                         ,  ROW_NUMBER() Over (Partition By Tx."CustNo", Tx."FacmNo", Tx."BormNo"
-                                                   Order By Tx."CustNo", Tx."FacmNo", Tx."BormNo", Tx."BorxNo" DESC)
-                                 AS ROW_NO
-                    FROM  "LoanBorTx" Tx                                   -- 結案戶
-                    WHERE Tx."TitaTxCd"  IN ('L3410', 'L3420')
-                      AND Tx."TitaHCode" IN ('0')
-                      AND TRUNC( NVL(Tx."AcDate",0) / 100) = YYYYMM
-                      AND JSON_VALUE  (Tx."OtherFields", '$.CaseCloseCode') IN (0, 4, 5, 6)
-                  ) Tx           ON Tx."CustNo"   = M."CustNo"
-                                AND Tx."FacmNo"   = M."FacmNo"
-                                AND Tx."BormNo"   = M."BormNo"
-                                AND Tx.ROW_NO     = 1   -- 撈最後一筆</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        LEFT JOIN ( SELECT  R."CustNo"
-                         ,  R."NewFacmNo"
-                         ,  R."NewBormNo"
-                         ,  ROW_NUMBER() Over (Partition By R."CustNo", R."NewFacmNo",  R."NewBormNo"
-                                                   Order By R."CustNo", R."NewFacmNo",  R."NewBormNo")
-                                 AS ROW_NO
-                    FROM  "AcLoanRenew" R
-                  ) R            ON R."CustNo"    = M."CustNo"
-                                AND R."NewFacmNo" = M."FacmNo"
-                                AND R."NewBormNo" = M."BormNo"
-                                AND R.ROW_NO      = 1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        LEFT JOIN ( SELECT  N."CustNo"
-                         ,  N."CaseSeq"
-                         ,  ROW_NUMBER() Over (Partition By "CustNo"
-                                               Order By "CaseSeq" DESC)
-                                            AS ROW_NO
-                    FROM  "NegMain" N
-                  ) N            ON N."CustNo"    = M."CustNo"
-                                AND N.ROW_NO      = 1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     WHERE  M."DataYM"     =  YYYYMM
-       AND  NVL(M."BadDebtSkipFg",' ') NOT IN ('Y')  -- 呆帳不報送記號
-       AND  ( ( M."Status" IN (0, 1, 2, 4, 6, 7) ) OR
-              ( M."Status" IN (3, 5, 9)  AND  M."UtilAmt" = 0  AND Tx."CustNo" IS NOT NULL  )
-            )
-      ;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>-- 更新 DelayPeriodCode 逾期期限</t>
   </si>
   <si>
@@ -2592,6 +2354,505 @@
   </si>
   <si>
     <t xml:space="preserve">    WHERE M."DataYM" = YYYYMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -- 寫入資料 "Work_B201_Guarantor" 保證人/所有權人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INSERT INTO "Work_B201_Guarantor"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SELECT YYYYMM                              AS "DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , G."ApplNo"                          AS "ApplNo"        -- 核准號碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , NVL("CustMain"."CustId",' ')        AS "CustId"        -- 保證人身份統一編號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , ROW_NUMBER()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Over (Partition By G."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Order     By G."ApplNo", NVL("CustMain"."CustId",' '), G."Source" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                               AS "ROW_NUM"       -- 序號（同一核准號碼編列流水號）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , 0                                   AS "ApplNoCount"   -- 筆數（同一核准號碼）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , G."Source"                          AS "Source"        -- 資料來源(1=保證人檔 2=所有權人檔)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , CASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHEN G."Source" = 1 THEN NVL(GU."GuaRelCode",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHEN G."Source" = 2 THEN NVL(O."OwnerRelCode",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             ELSE ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           END                                 AS "GuaRelCode"    -- 保證人關係代碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHEN G."Source" = 1 THEN NVL(CD1."GuaRelJcic",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHEN G."Source" = 2 THEN NVL(CD2."GuaRelJcic",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           END                                 AS "GuaRelJcic"    -- 保證人關係ＪＣＩＣ代碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHEN G."Source" = 1 THEN NVL(GU."GuaTypeCode",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             WHEN G."Source" = 2 THEN '05' -- 擔保品提供人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           END                                 AS "GuaTypeCode"   -- 保證類別代碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         , ' '                                 AS "GuaTypeJcic"   -- 保證類別ＪＣＩＣ代碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FROM (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           SELECT A."ApplNo"         AS "ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                , A."UKey"           AS "UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                , MIN(A."Source")    AS "Source"  -- (1=保證人檔 優先)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FROM (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -- 保證人檔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  SELECT G."GuaUKey"                AS "UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , NVL(G."ApproveNo",0)       AS "ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , 1                          AS "Source"  -- 1=保證人檔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  FROM   "Guarantor" G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  WHERE  G."GuaStatCode" IN ('1')  -- 保證狀況碼 1=設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             -- 擔保品所有權人與授信戶關係檔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                UNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  SELECT Owner."OwnerCustUKey"      AS "UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , Owner."CreditSysNo"        AS "ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       , 2                          AS "Source"  -- 2=所有權人檔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  FROM   "ClOwnerRelation" Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ) A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           GROUP BY A."ApplNo", A."UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         ) G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "CustMain"     ON "CustMain"."CustUKey"      = G."UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "Guarantor" GU ON G."Source"     =  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              AND GU."ApproveNo" =  G."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              AND GU."GuaUKey"   =  G."UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "CdGuarantor" CD1 ON CD1."GuaRelCode" = GU."GuaRelCode"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "ClOwnerRelation" O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               ON G."Source"        =  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              AND O."CreditSysNo"   =  G."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              AND O."OwnerCustUKey" =  G."UKey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      LEFT JOIN "CdGuarantor" CD2 ON CD2."GuaRelCode" = O."OwnerRelCode"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ORDER BY G."ApplNo", NVL("CustMain"."CustId",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -- "Work_B201_Guarantor" ApplNoCount 統計筆數（同一核准號碼）, GuaTypeJcic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MERGE INTO "Work_B201_Guarantor" M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    USING ( SELECT WK."DataYM"  AS "DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 , WK."ApplNo"  AS "ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 , COUNT(*)     AS "ApplNoCount"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            FROM "Work_B201_Guarantor" WK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            WHERE WK."DataYM" = YYYYMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            GROUP BY WK."DataYM", WK."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          ) WK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ON (    WK."DataYM"    = YYYYMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND WK."ApplNo"    = M."ApplNo" )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      SET M."ApplNoCount" = WK."ApplNoCount"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        , M."GuaTypeJcic" = CASE WHEN M."GuaTypeCode" IN ('01','02')      THEN 'G' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 WHEN M."GuaTypeCode" IN ('03','04')      THEN 'N'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 WHEN M."GuaTypeCode" IN ('05')           THEN 'S'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 WHEN M."GuaTypeCode" IN ('06','07')      THEN 'C'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 WHEN M."GuaTypeCode" IN ('08')           THEN 'E'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 WHEN M."GuaTypeCode" IN ('09','10','11') THEN 'L'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 ELSE ' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            END</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOR OccursNum IN 1 .. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ……</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      FROM   "JcicMonthlyLoanData" M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "FacMain" F   ON F."CustNo"   = M."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 AND F."FacmNo"   = M."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "LoanBorMain" L     ON L."CustNo"   = M."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       AND L."FacmNo"   = M."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       AND L."BormNo"   = M."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN ( SELECT  R."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  R."NewFacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  R."NewBormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  ROW_NUMBER() Over (Partition By R."CustNo", R."NewFacmNo",  R."NewBormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     Order By R."CustNo", R."NewFacmNo",  R."NewBormNo")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   AS ROW_NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      FROM  "AcLoanRenew" R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ) R            ON R."CustNo"    = M."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND R."NewFacmNo" = M."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND R."NewBormNo" = M."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND R.ROW_NO      = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN ( SELECT  Tx."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  Tx."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  Tx."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  Tx."TitaTxCd"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  Tx."TitaHCode"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  Tx."AcDate"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  JSON_VALUE  (Tx."OtherFields", '$.CaseCloseCode') AS "CaseCloseCode"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  ROW_NUMBER() Over (Partition By Tx."CustNo", Tx."FacmNo", Tx."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                     Order By Tx."CustNo", Tx."FacmNo", Tx."BormNo", Tx."BorxNo" DESC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      FROM  "LoanBorTx" Tx                                   -- 結案戶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      WHERE Tx."TitaTxCd"  IN ('L3410', 'L3420')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        AND Tx."TitaHCode" IN ('0')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        AND TRUNC( NVL(Tx."AcDate",0) / 100) = YYYYMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        AND JSON_VALUE  (Tx."OtherFields", '$.CaseCloseCode') IN (0, 4, 5, 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ) Tx           ON Tx."CustNo"   = M."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND Tx."FacmNo"   = M."FacmNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND Tx."BormNo"   = M."BormNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND Tx.ROW_NO     = 1   -- 撈最後一筆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN ( SELECT  N."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  N."CaseSeq"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           ,  ROW_NUMBER() Over (Partition By "CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                 Order By "CaseSeq" DESC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AS ROW_NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      FROM  "NegMain" N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    ) N            ON N."CustNo"    = M."CustNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                  AND N.ROW_NO      = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "Work_B201_Guarantor" WK1  ON WK1."DataYM"   = M."DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK1."ROW_NUM"  = OccursNum * 5 - 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK1."ApplNo"   = F."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "Work_B201_Guarantor" WK2  ON WK2."DataYM"   = M."DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK2."ROW_NUM"  = OccursNum * 5 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK2."ApplNo"   = F."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "Work_B201_Guarantor" WK3  ON WK3."DataYM"   = M."DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK3."ROW_NUM"  = OccursNum * 5 - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK3."ApplNo"   = F."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "Work_B201_Guarantor" WK4  ON WK4."DataYM"   = M."DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK4."ROW_NUM"  = OccursNum * 5 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK4."ApplNo"   = F."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          LEFT JOIN "Work_B201_Guarantor" WK5  ON WK5."DataYM"   = M."DataYM"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK5."ROW_NUM"  = OccursNum * 5 - 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              AND WK5."ApplNo"   = F."ApplNo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      WHERE  M."DataYM"     =  YYYYMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND  ( ( OccursNum = 1 ) OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               ( OccursNum &gt; 1  AND WK1."ApplNo" IS NOT NULL )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND  NVL(M."BadDebtSkipFg",' ') NOT IN ('Y')  -- 呆帳不報送記號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND  ( ( M."Status" IN (0, 1, 2, 4, 6, 7) ) OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               ( M."Status" IN (3, 5, 9)  AND  M."UtilAmt" = 0  AND Tx."CustNo" IS NOT NULL  )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    END LOOP;</t>
+  </si>
+  <si>
+    <t>OccursNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBSTR('000000' || TRIM(NVL(M."IndustryCode",' ')), -6)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVL(WK1."GuaTypeJcic",' ')</t>
+  </si>
+  <si>
+    <t>NVL(WK1."CustId",' ')</t>
+  </si>
+  <si>
+    <t>' '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK1."GuaRelJcic",' ') </t>
+  </si>
+  <si>
+    <t>NVL(WK2."GuaTypeJcic",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK2."CustId",' ')     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">' '                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK2."GuaRelJcic",' ') </t>
+  </si>
+  <si>
+    <t>NVL(WK3."GuaTypeJcic",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK3."CustId",' ')     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK3."GuaRelJcic",' ') </t>
+  </si>
+  <si>
+    <t>NVL(WK4."GuaTypeJcic",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK4."CustId",' ')     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK4."GuaRelJcic",' ') </t>
+  </si>
+  <si>
+    <t>NVL(WK5."GuaTypeJcic",' ')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK5."CustId",' ')     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVL(WK5."GuaRelJcic",' ') </t>
+  </si>
+  <si>
+    <t>CASE WHEN WK5."ApplNo" IS NULL THEN 'Y'
+     WHEN WK5."ApplNoCount" &lt;= OccursNum * 5 THEN 'Y'
+     ELSE 'N'
+END</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2929,18 +3190,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2977,6 +3226,18 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="?蟓%U?&amp;H?_x0008__x001e__x000d_?_x000f__x0001__x0001_" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2996,27 +3257,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="DBD"/>
-      <sheetName val="DBS"/>
-      <sheetName val="SP"/>
-      <sheetName val="暫存檔 Work_B211"/>
-      <sheetName val="條件"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3342,11 +3582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="H98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3358,17 +3598,17 @@
     <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" style="9" customWidth="1"/>
     <col min="7" max="7" width="71.5546875" style="19" customWidth="1"/>
-    <col min="8" max="9" width="6" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="81.88671875" style="44" customWidth="1"/>
+    <col min="8" max="9" width="6" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="81.88671875" style="40" customWidth="1"/>
     <col min="12" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="24" t="s">
         <v>27</v>
       </c>
@@ -3378,14 +3618,14 @@
       <c r="E1" s="25"/>
       <c r="F1" s="10"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="42"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -3395,16 +3635,16 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="43"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="8" t="s">
         <v>352</v>
       </c>
@@ -3412,67 +3652,67 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="43"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="43"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="44"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="43"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="44"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="21"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="43"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="44"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="43"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:11" s="14" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -3496,14 +3736,14 @@
       <c r="G8" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="38" t="s">
+      <c r="J8" s="32"/>
+      <c r="K8" s="34" t="s">
         <v>359</v>
       </c>
     </row>
@@ -3525,10 +3765,10 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="44" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="40" t="s">
         <v>361</v>
       </c>
     </row>
@@ -3552,14 +3792,14 @@
       <c r="G10" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="33">
         <v>1</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="44" t="s">
+      <c r="J10" s="33"/>
+      <c r="K10" s="40" t="s">
         <v>362</v>
       </c>
     </row>
@@ -3583,14 +3823,14 @@
       <c r="G11" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="33">
         <v>2</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="44" t="s">
+      <c r="J11" s="33"/>
+      <c r="K11" s="40" t="s">
         <v>363</v>
       </c>
     </row>
@@ -3614,14 +3854,14 @@
       <c r="G12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="33">
         <v>3.1</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="44" t="s">
+      <c r="J12" s="33"/>
+      <c r="K12" s="40" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3645,14 +3885,14 @@
       <c r="G13" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="33">
         <v>3.2</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="44" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="40" t="s">
         <v>365</v>
       </c>
     </row>
@@ -3676,14 +3916,14 @@
       <c r="G14" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="33">
         <v>4</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="44" t="s">
+      <c r="J14" s="33"/>
+      <c r="K14" s="40" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3707,11 +3947,11 @@
       <c r="G15" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="44" t="s">
-        <v>367</v>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="40" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -3734,15 +3974,15 @@
       <c r="G16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="33">
         <v>5</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="44" t="s">
-        <v>393</v>
+      <c r="J16" s="33"/>
+      <c r="K16" s="40" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -3765,15 +4005,15 @@
       <c r="G17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="33">
         <v>6</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="44" t="s">
-        <v>368</v>
+      <c r="J17" s="33"/>
+      <c r="K17" s="40" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3796,15 +4036,15 @@
       <c r="G18" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="33">
         <v>7</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="44" t="s">
-        <v>369</v>
+      <c r="J18" s="33"/>
+      <c r="K18" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -3827,15 +4067,15 @@
       <c r="G19" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="33">
         <v>8</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="44" t="s">
-        <v>370</v>
+      <c r="J19" s="33"/>
+      <c r="K19" s="40" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3858,15 +4098,15 @@
       <c r="G20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="33">
         <v>9</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="44" t="s">
-        <v>369</v>
+      <c r="J20" s="33"/>
+      <c r="K20" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -3889,15 +4129,15 @@
       <c r="G21" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="33">
         <v>10</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="44" t="s">
-        <v>371</v>
+      <c r="J21" s="33"/>
+      <c r="K21" s="40" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -3920,15 +4160,15 @@
       <c r="G22" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="33">
         <v>11</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="44" t="s">
-        <v>372</v>
+      <c r="J22" s="33"/>
+      <c r="K22" s="40" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3951,15 +4191,15 @@
       <c r="G23" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="33">
         <v>12</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="44" t="s">
-        <v>369</v>
+      <c r="J23" s="33"/>
+      <c r="K23" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -3982,15 +4222,15 @@
       <c r="G24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="33">
         <v>13</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="44" t="s">
-        <v>373</v>
+      <c r="J24" s="33"/>
+      <c r="K24" s="40" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -4013,15 +4253,15 @@
       <c r="G25" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="33">
         <v>14</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="44" t="s">
-        <v>374</v>
+      <c r="J25" s="33"/>
+      <c r="K25" s="40" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4044,15 +4284,15 @@
       <c r="G26" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="33">
         <v>15.1</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="44" t="s">
-        <v>375</v>
+      <c r="J26" s="33"/>
+      <c r="K26" s="40" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4075,15 +4315,15 @@
       <c r="G27" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="33">
         <v>15.2</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="44" t="s">
-        <v>376</v>
+      <c r="J27" s="33"/>
+      <c r="K27" s="40" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4106,15 +4346,15 @@
       <c r="G28" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="33">
         <v>16</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="44" t="s">
-        <v>377</v>
+      <c r="J28" s="33"/>
+      <c r="K28" s="40" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" ht="207" x14ac:dyDescent="0.3">
@@ -4137,15 +4377,15 @@
       <c r="G29" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="33">
         <v>17</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="44" t="s">
-        <v>378</v>
+      <c r="J29" s="33"/>
+      <c r="K29" s="40" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -4168,15 +4408,15 @@
       <c r="G30" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="33">
         <v>18</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="44" t="s">
-        <v>379</v>
+      <c r="J30" s="33"/>
+      <c r="K30" s="40" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4199,15 +4439,15 @@
       <c r="G31" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="33">
         <v>19</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="44" t="s">
-        <v>380</v>
+      <c r="J31" s="33"/>
+      <c r="K31" s="40" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4232,15 +4472,15 @@
       <c r="G32" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="33">
         <v>20</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="44" t="s">
-        <v>381</v>
+      <c r="J32" s="33"/>
+      <c r="K32" s="40" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4263,15 +4503,15 @@
       <c r="G33" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="33">
         <v>21</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="44" t="s">
-        <v>382</v>
+      <c r="J33" s="33"/>
+      <c r="K33" s="40" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4294,15 +4534,15 @@
       <c r="G34" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="33">
         <v>22</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="44" t="s">
-        <v>383</v>
+      <c r="J34" s="33"/>
+      <c r="K34" s="40" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -4325,15 +4565,15 @@
       <c r="G35" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="33">
         <v>23</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="44" t="s">
-        <v>384</v>
+      <c r="J35" s="33"/>
+      <c r="K35" s="40" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4356,15 +4596,15 @@
       <c r="G36" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="33">
         <v>24</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="44" t="s">
-        <v>385</v>
+      <c r="J36" s="33"/>
+      <c r="K36" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4387,15 +4627,15 @@
       <c r="G37" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="33">
         <v>25</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="44" t="s">
-        <v>385</v>
+      <c r="J37" s="33"/>
+      <c r="K37" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4418,15 +4658,15 @@
       <c r="G38" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="33">
         <v>26</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="44" t="s">
-        <v>386</v>
+      <c r="J38" s="33"/>
+      <c r="K38" s="40" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4449,18 +4689,18 @@
       <c r="G39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="33">
         <v>27</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="44" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="J39" s="33"/>
+      <c r="K39" s="40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>32</v>
       </c>
@@ -4480,15 +4720,15 @@
       <c r="G40" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="33">
         <v>28</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="44" t="s">
-        <v>388</v>
+      <c r="J40" s="33"/>
+      <c r="K40" s="40" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4511,15 +4751,15 @@
       <c r="G41" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="33">
         <v>29</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="44" t="s">
-        <v>389</v>
+      <c r="J41" s="33"/>
+      <c r="K41" s="40" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -4542,15 +4782,15 @@
       <c r="G42" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="33">
         <v>30</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="44" t="s">
-        <v>385</v>
+      <c r="J42" s="33"/>
+      <c r="K42" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="15" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
@@ -4573,15 +4813,15 @@
       <c r="G43" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="33">
         <v>31</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="44" t="s">
-        <v>391</v>
+      <c r="J43" s="33"/>
+      <c r="K43" s="40" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4604,15 +4844,15 @@
       <c r="G44" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="33">
         <v>32</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="44" t="s">
-        <v>385</v>
+      <c r="J44" s="33"/>
+      <c r="K44" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -4635,15 +4875,15 @@
       <c r="G45" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="33">
         <v>33</v>
       </c>
-      <c r="J45" s="37"/>
-      <c r="K45" s="44" t="s">
-        <v>390</v>
+      <c r="J45" s="33"/>
+      <c r="K45" s="40" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -4666,15 +4906,15 @@
       <c r="G46" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="33">
         <v>34</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="44" t="s">
-        <v>392</v>
+      <c r="J46" s="33"/>
+      <c r="K46" s="40" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="15" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.3">
@@ -4699,17 +4939,17 @@
       <c r="G47" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="33">
         <v>35</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="K47" s="44" t="s">
-        <v>394</v>
+      <c r="K47" s="40" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -4734,17 +4974,17 @@
       <c r="G48" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="33">
         <v>36</v>
       </c>
-      <c r="J48" s="37" t="s">
+      <c r="J48" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="K48" s="44" t="s">
-        <v>395</v>
+      <c r="K48" s="40" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -4769,17 +5009,17 @@
       <c r="G49" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="33">
         <v>37</v>
       </c>
-      <c r="J49" s="37" t="s">
+      <c r="J49" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="K49" s="44" t="s">
-        <v>396</v>
+      <c r="K49" s="40" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -4804,17 +5044,17 @@
       <c r="G50" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="33">
         <v>38</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="J50" s="33" t="s">
         <v>356</v>
       </c>
-      <c r="K50" s="44" t="s">
-        <v>397</v>
+      <c r="K50" s="40" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -4837,17 +5077,17 @@
       <c r="G51" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="H51" s="37" t="s">
+      <c r="H51" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="33">
         <v>39</v>
       </c>
-      <c r="J51" s="37" t="s">
+      <c r="J51" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="K51" s="44" t="s">
-        <v>398</v>
+      <c r="K51" s="40" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="15" customFormat="1" ht="138" x14ac:dyDescent="0.3">
@@ -4870,17 +5110,17 @@
       <c r="G52" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="33">
         <v>40</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="33">
         <v>304</v>
       </c>
-      <c r="K52" s="44" t="s">
-        <v>399</v>
+      <c r="K52" s="40" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -4903,15 +5143,15 @@
       <c r="G53" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="33">
         <v>41</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="44" t="s">
-        <v>400</v>
+      <c r="J53" s="33"/>
+      <c r="K53" s="40" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="207" x14ac:dyDescent="0.3">
@@ -4934,15 +5174,15 @@
       <c r="G54" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="33">
         <v>42</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="44" t="s">
-        <v>401</v>
+      <c r="J54" s="33"/>
+      <c r="K54" s="40" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
@@ -4965,15 +5205,15 @@
       <c r="G55" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="33">
         <v>43</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="44" t="s">
-        <v>369</v>
+      <c r="J55" s="33"/>
+      <c r="K55" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" ht="69" x14ac:dyDescent="0.3">
@@ -4996,15 +5236,15 @@
       <c r="G56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="37">
+      <c r="I56" s="33">
         <v>44.1</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="44" t="s">
-        <v>369</v>
+      <c r="J56" s="33"/>
+      <c r="K56" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -5027,15 +5267,15 @@
       <c r="G57" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="37">
+      <c r="I57" s="33">
         <v>44.2</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="44" t="s">
-        <v>369</v>
+      <c r="J57" s="33"/>
+      <c r="K57" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5058,15 +5298,15 @@
       <c r="G58" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I58" s="37">
+      <c r="I58" s="33">
         <v>44.3</v>
       </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="44" t="s">
-        <v>369</v>
+      <c r="J58" s="33"/>
+      <c r="K58" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -5089,15 +5329,15 @@
       <c r="G59" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H59" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="33">
         <v>45</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="44" t="s">
-        <v>402</v>
+      <c r="J59" s="33"/>
+      <c r="K59" s="40" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -5120,15 +5360,15 @@
       <c r="G60" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="33">
         <v>46</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="44" t="s">
-        <v>403</v>
+      <c r="J60" s="33"/>
+      <c r="K60" s="40" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5151,15 +5391,15 @@
       <c r="G61" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H61" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="33">
         <v>47</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="44" t="s">
-        <v>404</v>
+      <c r="J61" s="33"/>
+      <c r="K61" s="40" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5182,15 +5422,15 @@
       <c r="G62" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="33">
         <v>48</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="44" t="s">
-        <v>405</v>
+      <c r="J62" s="33"/>
+      <c r="K62" s="40" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5213,15 +5453,15 @@
       <c r="G63" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="33">
         <v>49</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="44" t="s">
-        <v>406</v>
+      <c r="J63" s="33"/>
+      <c r="K63" s="40" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5246,15 +5486,15 @@
       <c r="G64" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="33">
         <v>50</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="44" t="s">
-        <v>407</v>
+      <c r="J64" s="33"/>
+      <c r="K64" s="40" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5277,15 +5517,15 @@
       <c r="G65" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="33">
         <v>51</v>
       </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="44" t="s">
-        <v>369</v>
+      <c r="J65" s="33"/>
+      <c r="K65" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5308,15 +5548,15 @@
       <c r="G66" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I66" s="37">
+      <c r="I66" s="33">
         <v>52</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="44" t="s">
-        <v>369</v>
+      <c r="J66" s="33"/>
+      <c r="K66" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5339,15 +5579,15 @@
       <c r="G67" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="37">
+      <c r="I67" s="33">
         <v>53.1</v>
       </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="44" t="s">
-        <v>408</v>
+      <c r="J67" s="33"/>
+      <c r="K67" s="40" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -5370,15 +5610,15 @@
       <c r="G68" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I68" s="33">
         <v>53.2</v>
       </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="44" t="s">
-        <v>409</v>
+      <c r="J68" s="33"/>
+      <c r="K68" s="40" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5401,15 +5641,15 @@
       <c r="G69" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H69" s="37" t="s">
+      <c r="H69" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I69" s="37">
+      <c r="I69" s="33">
         <v>53.3</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="44" t="s">
-        <v>369</v>
+      <c r="J69" s="33"/>
+      <c r="K69" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5432,15 +5672,15 @@
       <c r="G70" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H70" s="37" t="s">
+      <c r="H70" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I70" s="37">
+      <c r="I70" s="33">
         <v>54</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="44" t="s">
-        <v>410</v>
+      <c r="J70" s="33"/>
+      <c r="K70" s="40" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5463,15 +5703,15 @@
       <c r="G71" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H71" s="37" t="s">
+      <c r="H71" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I71" s="37">
+      <c r="I71" s="33">
         <v>55</v>
       </c>
-      <c r="J71" s="37"/>
-      <c r="K71" s="44" t="s">
-        <v>411</v>
+      <c r="J71" s="33"/>
+      <c r="K71" s="40" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5494,15 +5734,15 @@
       <c r="G72" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I72" s="37">
+      <c r="I72" s="33">
         <v>56</v>
       </c>
-      <c r="J72" s="37"/>
-      <c r="K72" s="44" t="s">
-        <v>412</v>
+      <c r="J72" s="33"/>
+      <c r="K72" s="40" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5525,15 +5765,15 @@
       <c r="G73" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I73" s="37">
+      <c r="I73" s="33">
         <v>57</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="44" t="s">
-        <v>413</v>
+      <c r="J73" s="33"/>
+      <c r="K73" s="40" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5556,15 +5796,15 @@
       <c r="G74" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I74" s="33">
         <v>58</v>
       </c>
-      <c r="J74" s="37"/>
-      <c r="K74" s="44" t="s">
-        <v>414</v>
+      <c r="J74" s="33"/>
+      <c r="K74" s="40" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5587,15 +5827,15 @@
       <c r="G75" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="33">
         <v>59</v>
       </c>
-      <c r="J75" s="37"/>
-      <c r="K75" s="44" t="s">
-        <v>415</v>
+      <c r="J75" s="33"/>
+      <c r="K75" s="40" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5618,15 +5858,15 @@
       <c r="G76" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I76" s="37">
+      <c r="I76" s="33">
         <v>60</v>
       </c>
-      <c r="J76" s="37"/>
-      <c r="K76" s="44" t="s">
-        <v>416</v>
+      <c r="J76" s="33"/>
+      <c r="K76" s="40" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5649,15 +5889,15 @@
       <c r="G77" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="H77" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I77" s="37">
+      <c r="I77" s="33">
         <v>61</v>
       </c>
-      <c r="J77" s="37"/>
-      <c r="K77" s="44" t="s">
-        <v>417</v>
+      <c r="J77" s="33"/>
+      <c r="K77" s="40" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5680,15 +5920,15 @@
       <c r="G78" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H78" s="37" t="s">
+      <c r="H78" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I78" s="37">
+      <c r="I78" s="33">
         <v>62</v>
       </c>
-      <c r="J78" s="37"/>
-      <c r="K78" s="44" t="s">
-        <v>418</v>
+      <c r="J78" s="33"/>
+      <c r="K78" s="40" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5711,15 +5951,15 @@
       <c r="G79" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H79" s="37" t="s">
+      <c r="H79" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I79" s="37">
+      <c r="I79" s="33">
         <v>63</v>
       </c>
-      <c r="J79" s="37"/>
-      <c r="K79" s="44" t="s">
-        <v>419</v>
+      <c r="J79" s="33"/>
+      <c r="K79" s="40" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5742,15 +5982,15 @@
       <c r="G80" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H80" s="37" t="s">
+      <c r="H80" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I80" s="37">
+      <c r="I80" s="33">
         <v>64</v>
       </c>
-      <c r="J80" s="37"/>
-      <c r="K80" s="44" t="s">
-        <v>420</v>
+      <c r="J80" s="33"/>
+      <c r="K80" s="40" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5773,15 +6013,15 @@
       <c r="G81" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H81" s="37" t="s">
+      <c r="H81" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I81" s="33">
         <v>65</v>
       </c>
-      <c r="J81" s="37"/>
-      <c r="K81" s="44" t="s">
-        <v>421</v>
+      <c r="J81" s="33"/>
+      <c r="K81" s="40" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5804,15 +6044,15 @@
       <c r="G82" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H82" s="37" t="s">
+      <c r="H82" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I82" s="37">
+      <c r="I82" s="33">
         <v>66</v>
       </c>
-      <c r="J82" s="37"/>
-      <c r="K82" s="44" t="s">
-        <v>422</v>
+      <c r="J82" s="33"/>
+      <c r="K82" s="40" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5835,15 +6075,15 @@
       <c r="G83" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H83" s="37" t="s">
+      <c r="H83" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I83" s="37">
+      <c r="I83" s="33">
         <v>67</v>
       </c>
-      <c r="J83" s="37"/>
-      <c r="K83" s="44" t="s">
-        <v>423</v>
+      <c r="J83" s="33"/>
+      <c r="K83" s="40" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5866,15 +6106,15 @@
       <c r="G84" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H84" s="37" t="s">
+      <c r="H84" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I84" s="37">
+      <c r="I84" s="33">
         <v>68</v>
       </c>
-      <c r="J84" s="37"/>
-      <c r="K84" s="44" t="s">
-        <v>424</v>
+      <c r="J84" s="33"/>
+      <c r="K84" s="40" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5897,15 +6137,15 @@
       <c r="G85" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H85" s="37" t="s">
+      <c r="H85" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I85" s="37">
+      <c r="I85" s="33">
         <v>69</v>
       </c>
-      <c r="J85" s="37"/>
-      <c r="K85" s="44" t="s">
-        <v>425</v>
+      <c r="J85" s="33"/>
+      <c r="K85" s="40" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5928,15 +6168,15 @@
       <c r="G86" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H86" s="37" t="s">
+      <c r="H86" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="37">
+      <c r="I86" s="33">
         <v>70</v>
       </c>
-      <c r="J86" s="37"/>
-      <c r="K86" s="44" t="s">
-        <v>426</v>
+      <c r="J86" s="33"/>
+      <c r="K86" s="40" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="15" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
@@ -5959,15 +6199,15 @@
       <c r="G87" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="H87" s="37" t="s">
+      <c r="H87" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I87" s="37">
+      <c r="I87" s="33">
         <v>71</v>
       </c>
-      <c r="J87" s="37"/>
-      <c r="K87" s="44" t="s">
-        <v>427</v>
+      <c r="J87" s="33"/>
+      <c r="K87" s="40" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5990,15 +6230,15 @@
       <c r="G88" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="H88" s="37" t="s">
+      <c r="H88" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I88" s="37">
+      <c r="I88" s="33">
         <v>72</v>
       </c>
-      <c r="J88" s="37"/>
-      <c r="K88" s="44" t="s">
-        <v>428</v>
+      <c r="J88" s="33"/>
+      <c r="K88" s="40" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6021,15 +6261,15 @@
       <c r="G89" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="H89" s="37" t="s">
+      <c r="H89" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I89" s="37">
+      <c r="I89" s="33">
         <v>73</v>
       </c>
-      <c r="J89" s="37"/>
-      <c r="K89" s="44" t="s">
-        <v>429</v>
+      <c r="J89" s="33"/>
+      <c r="K89" s="40" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6052,15 +6292,15 @@
       <c r="G90" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H90" s="37" t="s">
+      <c r="H90" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I90" s="37">
+      <c r="I90" s="33">
         <v>74.099999999999994</v>
       </c>
-      <c r="J90" s="37"/>
-      <c r="K90" s="44" t="s">
-        <v>369</v>
+      <c r="J90" s="33"/>
+      <c r="K90" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6083,15 +6323,15 @@
       <c r="G91" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="H91" s="37" t="s">
+      <c r="H91" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I91" s="37">
+      <c r="I91" s="33">
         <v>74.2</v>
       </c>
-      <c r="J91" s="37"/>
-      <c r="K91" s="44" t="s">
-        <v>369</v>
+      <c r="J91" s="33"/>
+      <c r="K91" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="15" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
@@ -6114,15 +6354,15 @@
       <c r="G92" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="H92" s="37" t="s">
+      <c r="H92" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I92" s="37">
+      <c r="I92" s="33">
         <v>74.3</v>
       </c>
-      <c r="J92" s="37"/>
-      <c r="K92" s="44" t="s">
-        <v>430</v>
+      <c r="J92" s="33"/>
+      <c r="K92" s="40" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -6145,15 +6385,15 @@
       <c r="G93" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H93" s="37" t="s">
+      <c r="H93" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I93" s="37">
+      <c r="I93" s="33">
         <v>74.400000000000006</v>
       </c>
-      <c r="J93" s="37"/>
-      <c r="K93" s="44" t="s">
-        <v>431</v>
+      <c r="J93" s="33"/>
+      <c r="K93" s="40" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6176,15 +6416,15 @@
       <c r="G94" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H94" s="37" t="s">
+      <c r="H94" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="I94" s="37">
+      <c r="I94" s="33">
         <v>74.5</v>
       </c>
-      <c r="J94" s="37"/>
-      <c r="K94" s="44" t="s">
-        <v>432</v>
+      <c r="J94" s="33"/>
+      <c r="K94" s="40" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6207,15 +6447,15 @@
       <c r="G95" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="H95" s="37" t="s">
+      <c r="H95" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="33">
         <v>74.599999999999994</v>
       </c>
-      <c r="J95" s="37"/>
-      <c r="K95" s="44" t="s">
-        <v>408</v>
+      <c r="J95" s="33"/>
+      <c r="K95" s="40" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="15" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
@@ -6238,15 +6478,15 @@
       <c r="G96" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="H96" s="37" t="s">
+      <c r="H96" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I96" s="33">
         <v>74.7</v>
       </c>
-      <c r="J96" s="37"/>
-      <c r="K96" s="44" t="s">
-        <v>433</v>
+      <c r="J96" s="33"/>
+      <c r="K96" s="40" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
@@ -6269,15 +6509,15 @@
       <c r="G97" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="H97" s="37" t="s">
+      <c r="H97" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I97" s="37">
+      <c r="I97" s="33">
         <v>74.8</v>
       </c>
-      <c r="J97" s="37"/>
-      <c r="K97" s="44" t="s">
-        <v>369</v>
+      <c r="J97" s="33"/>
+      <c r="K97" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="15" customFormat="1" ht="82.8" x14ac:dyDescent="0.3">
@@ -6300,15 +6540,15 @@
       <c r="G98" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="H98" s="37" t="s">
+      <c r="H98" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="I98" s="37">
+      <c r="I98" s="33">
         <v>74.900000000000006</v>
       </c>
-      <c r="J98" s="37"/>
-      <c r="K98" s="44" t="s">
-        <v>369</v>
+      <c r="J98" s="33"/>
+      <c r="K98" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6331,15 +6571,15 @@
       <c r="G99" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="H99" s="37" t="s">
+      <c r="H99" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="I99" s="37" t="s">
+      <c r="I99" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="J99" s="37"/>
-      <c r="K99" s="44" t="s">
-        <v>369</v>
+      <c r="J99" s="33"/>
+      <c r="K99" s="40" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="15" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -6362,18 +6602,18 @@
       <c r="G100" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="H100" s="37" t="s">
+      <c r="H100" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="I100" s="37" t="s">
+      <c r="I100" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J100" s="37"/>
-      <c r="K100" s="44" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J100" s="33"/>
+      <c r="K100" s="40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="15" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <v>93</v>
       </c>
@@ -6393,15 +6633,15 @@
       <c r="G101" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="H101" s="37" t="s">
+      <c r="H101" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I101" s="37">
+      <c r="I101" s="33">
         <v>75</v>
       </c>
-      <c r="J101" s="37"/>
-      <c r="K101" s="44" t="s">
-        <v>435</v>
+      <c r="J101" s="33"/>
+      <c r="K101" s="40" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -6422,10 +6662,10 @@
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="44"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="33"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="40"/>
     </row>
     <row r="103" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
@@ -6445,10 +6685,10 @@
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="19"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="44"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="40"/>
     </row>
     <row r="104" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
@@ -6468,10 +6708,10 @@
       </c>
       <c r="F104" s="9"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="44"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="40"/>
     </row>
     <row r="105" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
@@ -6491,10 +6731,10 @@
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="19"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="44"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="40"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="18"/>
@@ -6665,200 +6905,422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE35AD99-48A9-4F65-85E7-7D4E229BD8ED}">
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" style="39" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="39"/>
+    <col min="1" max="1" width="142.33203125" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>436</v>
+      <c r="A1" s="35" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A2" s="35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="36" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="36" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="36" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="36" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="36" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="36" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="36" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="289.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="35" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="35" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="35" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="35" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6868,64 +7330,377 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874E9D23-D51D-49F6-82CD-A4FBCC484047}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="151.21875" style="39" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="151.21875" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="262.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>451</v>
+      <c r="A1" s="36" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="36" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="36" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="36" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="35" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="35" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
+        <v>719</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6937,1132 +7712,1132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0C5AF8-5DD4-4495-9007-52AFE00AAA94}">
   <dimension ref="A1:A251"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="193.88671875" style="39" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="193.88671875" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="35" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="35" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="35" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="35" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="35" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="35" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="35" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="35" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="35" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="35" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="35" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="35" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="35" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="35" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="35" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="35" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="35" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="35" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="35" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="35" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="35" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="35" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="35" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="35" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="35" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="35" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="35" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="35" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="35" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="35" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="35" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="35" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" s="35" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="35" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="35" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="35" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="35" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="35" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="35" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="35" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="35" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="35" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="35" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="35" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="35" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="35" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="35" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="35" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="35" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="35" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="35" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="35" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="35" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="35" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="35" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="35" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="35" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="35" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="35" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="35" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="35" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="35" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="35" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="35" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="35" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="35" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="35" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="35" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="39" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="39" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="35" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="35" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="35" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="35" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="35" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="35" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="35" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="35" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="39" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="39" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="39" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="39" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="39" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="39" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="39" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="39" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="39" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="39" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="39" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="39" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="39" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="39" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="39" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="39" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="39" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="39" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="39" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="39" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="39" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="39" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="39" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="39" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="39" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="39" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="39" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="39" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="39" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="39" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="39" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="39" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="39" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="39" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="39" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="39" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="39" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="39" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="39" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="39" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="39" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="39" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="39" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="39" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="39" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="39" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="39" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="35" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="39" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="35" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="39" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="35" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="39" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="35" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="39" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="39" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="39" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="39" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="39" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="39" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="39" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="39" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="39" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="39" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="39" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="39" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="39" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="39" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="39" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="39" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="39" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="39" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="39" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="39" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="39" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="39" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="39" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="39" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="39" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="39" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="39" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="39" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="39" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="39" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="39" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="39" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="39" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="39" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="39" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="39" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="39" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="39" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="39" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="39" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="39" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="39" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="39" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="39" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="39" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="39" t="s">
-        <v>614</v>
-      </c>
-    </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="39" t="s">
-        <v>481</v>
+      <c r="A251" s="35" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8093,10 +8868,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
@@ -8108,8 +8883,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -8121,10 +8896,10 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="8" t="s">
         <v>306</v>
       </c>
@@ -8134,10 +8909,10 @@
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
@@ -8145,20 +8920,20 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="44"/>
       <c r="D5" s="6"/>
       <c r="E5" s="10"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="44"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="4"/>
@@ -8167,10 +8942,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="44"/>
       <c r="D7" s="6"/>
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
